--- a/sql_practice/sql_dataframe.xlsx
+++ b/sql_practice/sql_dataframe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhi3\Documents\work\ds-algo\sql_practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4973CE1B-1A1D-4A76-AA5D-2554C6E0D30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303A18EF-5F4D-4CBB-9F75-7B3AD0D2E73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{F1603824-F2BF-4534-82E3-A0C4687B58DF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{F1603824-F2BF-4534-82E3-A0C4687B58DF}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="Employees" sheetId="4" r:id="rId4"/>
     <sheet name="Employee" sheetId="5" r:id="rId5"/>
     <sheet name="user_content" sheetId="6" r:id="rId6"/>
+    <sheet name="Logs" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="78">
   <si>
     <t>product_id</t>
   </si>
@@ -253,6 +254,12 @@
   </si>
   <si>
     <t>goodBYE!</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>num</t>
   </si>
 </sst>
 </file>
@@ -759,7 +766,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -769,6 +776,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1705,99 +1715,179 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B2D015-A334-4C4C-A1D0-CB365950CEF6}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1810,7 +1900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD34FC1-C302-48B5-AC9B-0823D3BAF707}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -1974,4 +2064,116 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B06C4B-729F-4E59-A4B5-A7C022C9C6DE}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/sql_practice/sql_dataframe.xlsx
+++ b/sql_practice/sql_dataframe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhi3\Documents\work\ds-algo\sql_practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303A18EF-5F4D-4CBB-9F75-7B3AD0D2E73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95146CFE-5A7B-4312-95AA-129D9A82B4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{F1603824-F2BF-4534-82E3-A0C4687B58DF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{F1603824-F2BF-4534-82E3-A0C4687B58DF}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,17 @@
     <sheet name="Employee" sheetId="5" r:id="rId5"/>
     <sheet name="user_content" sheetId="6" r:id="rId6"/>
     <sheet name="Logs" sheetId="7" r:id="rId7"/>
+    <sheet name="acquity_employee" sheetId="8" r:id="rId8"/>
+    <sheet name="acquity_department" sheetId="9" r:id="rId9"/>
+    <sheet name="acquity_projects" sheetId="10" r:id="rId10"/>
+    <sheet name="acquity_assignments" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="116">
   <si>
     <t>product_id</t>
   </si>
@@ -260,6 +264,120 @@
   </si>
   <si>
     <t>num</t>
+  </si>
+  <si>
+    <t>manager_id</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>last_active_date</t>
+  </si>
+  <si>
+    <t>alice@example.com</t>
+  </si>
+  <si>
+    <t>bob@example.com</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>charlie@example.com</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>david@example.com</t>
+  </si>
+  <si>
+    <t>Eve</t>
+  </si>
+  <si>
+    <t>eve@example.com</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>frank@example.com</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>grace@example.com</t>
+  </si>
+  <si>
+    <t>Heidi</t>
+  </si>
+  <si>
+    <t>heidi@example.com</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>ivan@example.com</t>
+  </si>
+  <si>
+    <t>Judy</t>
+  </si>
+  <si>
+    <t>judy@example.com</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>project_id</t>
+  </si>
+  <si>
+    <t>project_name</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>Project Alpha</t>
+  </si>
+  <si>
+    <t>Project Beta</t>
+  </si>
+  <si>
+    <t>Project Gamma</t>
+  </si>
+  <si>
+    <t>Project Delta</t>
+  </si>
+  <si>
+    <t>Project Epsilon</t>
+  </si>
+  <si>
+    <t>assignment_id</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Tester</t>
   </si>
 </sst>
 </file>
@@ -766,7 +884,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -779,6 +897,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1308,6 +1435,298 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012E248B-E87B-40A2-90C6-D2BF1E317C9B}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="7">
+        <v>44927</v>
+      </c>
+      <c r="D2" s="7">
+        <v>45107</v>
+      </c>
+      <c r="E2" s="6">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="7">
+        <v>44972</v>
+      </c>
+      <c r="D3" s="7">
+        <v>45153</v>
+      </c>
+      <c r="E3" s="6">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="7">
+        <v>44986</v>
+      </c>
+      <c r="D4" s="7">
+        <v>45199</v>
+      </c>
+      <c r="E4" s="6">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="7">
+        <v>45017</v>
+      </c>
+      <c r="D5" s="7">
+        <v>45230</v>
+      </c>
+      <c r="E5" s="6">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="7">
+        <v>45047</v>
+      </c>
+      <c r="D6" s="7">
+        <v>45291</v>
+      </c>
+      <c r="E6" s="6">
+        <v>300000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0753C6B-1610-42A5-B9C8-F2EBB2BA0B8A}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="29.21875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02063650-A890-41EB-8903-1596603BFF01}">
   <dimension ref="A1:C11"/>
@@ -2070,7 +2489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B06C4B-729F-4E59-A4B5-A7C022C9C6DE}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -2176,4 +2595,322 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33FCFF8-A8E1-4ECA-AB8E-BF2DEF877892}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.8">
+      <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.2">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6">
+        <v>60000</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="7">
+        <v>45158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="43.2">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6">
+        <v>55000</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="7">
+        <v>45122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="43.2">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="6">
+        <v>80000</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="7">
+        <v>45087</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="43.2">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6">
+        <v>50000</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="7">
+        <v>45051</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="43.2">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>70000</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="7">
+        <v>45017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.2">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6">
+        <v>60000</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="7">
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="43.2">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="6">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6">
+        <v>65000</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="7">
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="43.2">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6">
+        <v>55000</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="7">
+        <v>44936</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="43.2">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>3</v>
+      </c>
+      <c r="E10" s="6">
+        <v>60000</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="7">
+        <v>44900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="43.2">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="6">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6">
+        <v>3</v>
+      </c>
+      <c r="E11" s="6">
+        <v>50000</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="7">
+        <v>44866</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F64CC6DC-5BE0-4B5C-9C8B-11E4E13EBB12}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="43.2">
+      <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>